--- a/Matrices.xlsx
+++ b/Matrices.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lianjongejan/Documents/UvA/Thesis/Matrices/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lianjongejan/Documents/oTree/Math/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B7D48DF-4438-AB43-A240-2B8AF9D705DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F57182B-C956-8F48-9B98-4C673EF60457}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2420" yWindow="-18600" windowWidth="28040" windowHeight="15800" xr2:uid="{AE8472F6-1A45-F247-9164-93B61E28A99B}"/>
   </bookViews>
@@ -601,7 +601,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Matrices.xlsx
+++ b/Matrices.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lianjongejan/Documents/oTree/Math/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lianjongejan/Documents/oTree/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F57182B-C956-8F48-9B98-4C673EF60457}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E60A04-05C3-3F48-B197-53D1037832FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="-18600" windowWidth="28040" windowHeight="15800" xr2:uid="{AE8472F6-1A45-F247-9164-93B61E28A99B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{AE8472F6-1A45-F247-9164-93B61E28A99B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -598,20 +598,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6B22E7-3497-A24D-88D4-F53A804ABB4E}">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -652,7 +652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -692,11 +692,11 @@
       <c r="M2" s="1">
         <v>4.57</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -736,17 +736,17 @@
       <c r="M3" s="1">
         <v>3.82</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>2</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -787,20 +787,21 @@
         <v>7.7</v>
       </c>
       <c r="N4" s="1"/>
-      <c r="O4">
+      <c r="O4" s="1"/>
+      <c r="P4">
         <v>1</v>
       </c>
-      <c r="P4" s="2">
+      <c r="Q4" s="2">
         <v>1.69</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="R4" s="3">
         <v>1.82</v>
       </c>
-      <c r="R4" s="4">
+      <c r="S4" s="4">
         <v>2.91</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -841,20 +842,21 @@
         <v>7.54</v>
       </c>
       <c r="N5" s="1"/>
-      <c r="O5">
+      <c r="O5" s="1"/>
+      <c r="P5">
         <v>2</v>
       </c>
-      <c r="P5" s="5">
+      <c r="Q5" s="5">
         <v>4.67</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="R5" s="6">
         <v>4.8099999999999996</v>
       </c>
-      <c r="R5" s="7">
+      <c r="S5" s="7">
         <v>3.05</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -895,20 +897,21 @@
         <v>8.58</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="O6">
+      <c r="O6" s="1"/>
+      <c r="P6">
         <v>3</v>
       </c>
-      <c r="P6" s="5">
+      <c r="Q6" s="5">
         <v>5.82</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="R6" s="6">
         <v>5.0599999999999996</v>
       </c>
-      <c r="R6" s="7">
+      <c r="S6" s="7">
         <v>4.28</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -949,20 +952,21 @@
         <v>8.51</v>
       </c>
       <c r="N7" s="1"/>
-      <c r="O7">
+      <c r="O7" s="1"/>
+      <c r="P7">
         <v>4</v>
       </c>
-      <c r="P7" s="8">
+      <c r="Q7" s="8">
         <v>6.36</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="R7" s="9">
         <v>5.19</v>
       </c>
-      <c r="R7" s="10">
+      <c r="S7" s="10">
         <v>4.57</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1003,8 +1007,9 @@
         <v>7.54</v>
       </c>
       <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1045,11 +1050,12 @@
         <v>2.71</v>
       </c>
       <c r="N9" s="1"/>
-      <c r="O9" t="s">
+      <c r="O9" s="1"/>
+      <c r="P9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1090,17 +1096,18 @@
         <v>8.32</v>
       </c>
       <c r="N10" s="1"/>
-      <c r="P10">
+      <c r="O10" s="1"/>
+      <c r="Q10">
         <v>1</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>2</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1141,20 +1148,21 @@
         <v>2.86</v>
       </c>
       <c r="N11" s="1"/>
-      <c r="O11">
+      <c r="O11" s="1"/>
+      <c r="P11">
         <v>1</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="Q11" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="R11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="R11" s="11" t="s">
+      <c r="S11" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1195,20 +1203,21 @@
         <v>8.17</v>
       </c>
       <c r="N12" s="1"/>
-      <c r="O12">
+      <c r="O12" s="1"/>
+      <c r="P12">
         <v>2</v>
       </c>
-      <c r="P12" s="11" t="s">
+      <c r="Q12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="R12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="R12" s="11" t="s">
+      <c r="S12" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1249,20 +1258,21 @@
         <v>9.33</v>
       </c>
       <c r="N13" s="1"/>
-      <c r="O13">
+      <c r="O13" s="1"/>
+      <c r="P13">
         <v>3</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="Q13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="R13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="R13" s="11" t="s">
+      <c r="S13" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1303,20 +1313,21 @@
         <v>8.16</v>
       </c>
       <c r="N14" s="1"/>
-      <c r="O14">
+      <c r="O14" s="1"/>
+      <c r="P14">
         <v>4</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="Q14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="11" t="s">
+      <c r="R14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R14" s="11" t="s">
+      <c r="S14" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1357,8 +1368,9 @@
         <v>2.09</v>
       </c>
       <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1399,8 +1411,9 @@
         <v>0.49</v>
       </c>
       <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1441,8 +1454,9 @@
         <v>2.9</v>
       </c>
       <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1483,8 +1497,9 @@
         <v>6.79</v>
       </c>
       <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1525,8 +1540,9 @@
         <v>9.48</v>
       </c>
       <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1567,8 +1583,9 @@
         <v>8.52</v>
       </c>
       <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1609,8 +1626,9 @@
         <v>2.46</v>
       </c>
       <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1621,7 +1639,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1632,7 +1650,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1643,7 +1661,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
